--- a/biology/Botanique/Jardinière/Jardinière.xlsx
+++ b/biology/Botanique/Jardinière/Jardinière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardini%C3%A8re</t>
+          <t>Jardinière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardini%C3%A8re</t>
+          <t>Jardinière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jardinière est un pot de fleurs, souvent longitudinal, peut être placé devant une fenêtre, sur un balcon, un mur, un muret, dans un jardin, une cour, ou encore sur un balcon.
 Elle peut contenir des plantes de toutes sortes, qu'elles soient médicinales, consommables ou juste esthétiques.
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardini%C3%A8re</t>
+          <t>Jardinière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jardinière est facilement réalisable à la maison, avec quelques matériaux de récupération. Par exemple, elle peut être faite avec des planches en bois, des palettes, même des gouttières.
 </t>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardini%C3%A8re</t>
+          <t>Jardinière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jardinière est facile à utiliser. Il suffit de mettre de la terre à l'intérieur du pot et d'y planter des graines ou des racines. Finalement, il n'y a plus qu'à arroser les plantes de temps en temps.
 </t>
